--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi Ekstra" sheetId="2" r:id="rId1"/>
     <sheet name="Poprzednie sezony Ekstra" sheetId="1" r:id="rId2"/>
     <sheet name="Sparingi I liga" sheetId="3" r:id="rId3"/>
+    <sheet name="Poprzednie sezony I liga" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="227">
   <si>
     <t>bramki</t>
   </si>
@@ -1268,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1316,18 +1317,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1454,6 +1459,244 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1475,6 +1718,130 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2016,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,10 +3514,10 @@
     <sortCondition descending="1" ref="H10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -3172,7 +3539,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3280,7 +3647,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>225</v>
       </c>
       <c r="B2" t="s">
@@ -3380,13 +3747,13 @@
         <f t="shared" ref="AG2:AG5" si="0">SUM(C2:AF2)</f>
         <v>660</v>
       </c>
-      <c r="AH2" s="42">
+      <c r="AH2" s="41">
         <f>AG2/COUNT(C2:AF2)</f>
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -3484,13 +3851,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AH3" s="42">
+      <c r="AH3" s="41">
         <f>AG3/COUNT(C3:AF3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -3588,13 +3955,13 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="AH4" s="42">
+      <c r="AH4" s="41">
         <f>AG4/COUNT(C4:AF4)</f>
         <v>4.2666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -3692,16 +4059,16 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="41">
         <f>AG5/COUNT(C5:AF5)</f>
         <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AH6" s="43"/>
+      <c r="AH6" s="42"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>224</v>
       </c>
       <c r="B7" t="s">
@@ -3801,13 +4168,13 @@
         <f>SUM(C7:AF7)</f>
         <v>621</v>
       </c>
-      <c r="AH7" s="42">
+      <c r="AH7" s="41">
         <f>AG7/COUNT(C7:AF7)</f>
         <v>20.7</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -3905,13 +4272,13 @@
         <f>SUM(C8:AF8)</f>
         <v>55</v>
       </c>
-      <c r="AH8" s="42">
+      <c r="AH8" s="41">
         <f>AG8/COUNT(C8:AF8)</f>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -4009,13 +4376,13 @@
         <f>SUM(C9:AF9)</f>
         <v>136</v>
       </c>
-      <c r="AH9" s="42">
+      <c r="AH9" s="41">
         <f>AG9/COUNT(C9:AF9)</f>
         <v>4.5333333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -4113,16 +4480,16 @@
         <f>SUM(C10:AF10)</f>
         <v>114</v>
       </c>
-      <c r="AH10" s="42">
+      <c r="AH10" s="41">
         <f>AG10/COUNT(C10:AF10)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AH11" s="43"/>
+      <c r="AH11" s="42"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>226</v>
       </c>
       <c r="B12" t="s">
@@ -4164,13 +4531,13 @@
         <f>SUM(C12:AF12)</f>
         <v>20</v>
       </c>
-      <c r="AH12" s="42">
+      <c r="AH12" s="41">
         <f>AG12/COUNT(C12:AF12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="43"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -4210,13 +4577,13 @@
         <f>SUM(C13:AF13)</f>
         <v>1</v>
       </c>
-      <c r="AH13" s="42">
+      <c r="AH13" s="41">
         <f>AG13/COUNT(C13:AF13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="43"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -4256,13 +4623,13 @@
         <f>SUM(C14:AF14)</f>
         <v>2</v>
       </c>
-      <c r="AH14" s="42">
+      <c r="AH14" s="41">
         <f>AG14/COUNT(C14:AF14)</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="43"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -4302,7 +4669,7 @@
         <f>SUM(C15:AF15)</f>
         <v>4</v>
       </c>
-      <c r="AH15" s="42">
+      <c r="AH15" s="41">
         <f>AG15/COUNT(C15:AF15)</f>
         <v>4</v>
       </c>
@@ -4314,89 +4681,89 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:AF7">
-    <cfRule type="top10" dxfId="30" priority="25" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="top10" dxfId="59" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:AF2">
-    <cfRule type="top10" dxfId="27" priority="24" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
+    <cfRule type="top10" dxfId="56" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="lessThan">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="greaterThan">
       <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AF9">
-    <cfRule type="top10" dxfId="24" priority="11" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="top10" dxfId="53" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AF4">
-    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
+    <cfRule type="top10" dxfId="50" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="lessThan">
       <formula>$AH$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="greaterThan">
       <formula>$AH$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AF5">
-    <cfRule type="top10" dxfId="18" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="top10" dxfId="47" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
       <formula>$AH$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="lessThan">
       <formula>$AH$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AF10">
-    <cfRule type="top10" dxfId="15" priority="12" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="top10" dxfId="44" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
-    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="top10" dxfId="40" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>$AH$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
       <formula>$AH$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AF14">
-    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="top10" dxfId="37" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
       <formula>$AH$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
       <formula>$AH$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AF15">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="top10" dxfId="34" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>$AH$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4409,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4905,7 +5272,7 @@
       <c r="R9" s="26"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -4918,7 +5285,7 @@
       <c r="D10" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="44" t="s">
         <v>209</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -4949,7 +5316,7 @@
       <c r="O10" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="44" t="s">
         <v>207</v>
       </c>
       <c r="Q10" s="29" t="s">
@@ -4973,7 +5340,7 @@
       <c r="D11" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="32" t="s">
         <v>210</v>
       </c>
       <c r="F11" s="32" t="s">
@@ -5002,7 +5369,7 @@
       <c r="O11" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="32" t="s">
         <v>174</v>
       </c>
       <c r="Q11" s="32" t="s">
@@ -5337,10 +5704,10 @@
     <sortCondition descending="1" ref="S10"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -5354,4 +5721,1359 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1">
+        <v>32</v>
+      </c>
+      <c r="U2" s="1">
+        <v>25</v>
+      </c>
+      <c r="V2" s="45">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3">
+        <v>21</v>
+      </c>
+      <c r="X2" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(C2:AJ2)</f>
+        <v>766</v>
+      </c>
+      <c r="AL2" s="41">
+        <f t="shared" ref="AL2:AL7" si="0">AK2/COUNT(C2:AJ2)</f>
+        <v>22.529411764705884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="45">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(C3:AJ3)</f>
+        <v>91</v>
+      </c>
+      <c r="AL3" s="41">
+        <f t="shared" si="0"/>
+        <v>2.6764705882352939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="45">
+        <v>6</v>
+      </c>
+      <c r="W4" s="3">
+        <v>6</v>
+      </c>
+      <c r="X4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(C4:AJ4)</f>
+        <v>181</v>
+      </c>
+      <c r="AL4" s="41">
+        <f t="shared" si="0"/>
+        <v>5.3235294117647056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>6</v>
+      </c>
+      <c r="V5" s="45">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(C5:AJ5)</f>
+        <v>124</v>
+      </c>
+      <c r="AL5" s="41">
+        <f t="shared" si="0"/>
+        <v>3.6470588235294117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AL6" s="41"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>27</v>
+      </c>
+      <c r="P7" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>17</v>
+      </c>
+      <c r="R7" s="1">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1">
+        <v>27</v>
+      </c>
+      <c r="T7" s="1">
+        <v>29</v>
+      </c>
+      <c r="U7" s="1">
+        <v>27</v>
+      </c>
+      <c r="V7" s="3">
+        <v>19</v>
+      </c>
+      <c r="W7" s="1">
+        <v>31</v>
+      </c>
+      <c r="X7" s="1">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>19</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>19</v>
+      </c>
+      <c r="AK7" s="1">
+        <f>SUM(C7:AJ7)</f>
+        <v>810</v>
+      </c>
+      <c r="AL7" s="41">
+        <f t="shared" si="0"/>
+        <v>23.823529411764707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="1">
+        <f>SUM(C8:AJ8)</f>
+        <v>71</v>
+      </c>
+      <c r="AL8" s="41">
+        <f>AK8/COUNT(C8:AJ8)</f>
+        <v>2.0882352941176472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>7</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="1">
+        <f>SUM(C9:AJ9)</f>
+        <v>165</v>
+      </c>
+      <c r="AL9" s="41">
+        <f t="shared" ref="AL9:AL15" si="1">AK9/COUNT(C9:AJ9)</f>
+        <v>4.8529411764705879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="1">
+        <f>SUM(C10:AJ10)</f>
+        <v>136</v>
+      </c>
+      <c r="AL10" s="41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AL11" s="41"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1">
+        <f>SUM(C12:AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1">
+        <f>SUM(C13:AF13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1">
+        <f>SUM(C14:AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1">
+        <f>SUM(C15:AF15)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C7:AJ7">
+    <cfRule type="top10" dxfId="28" priority="25" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+      <formula>$AL$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="greaterThan">
+      <formula>$AL$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:AJ2">
+    <cfRule type="top10" dxfId="25" priority="24" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+      <formula>$AL$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="greaterThan">
+      <formula>$AL$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:AJ9">
+    <cfRule type="top10" dxfId="22" priority="11" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+      <formula>$AL$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
+      <formula>$AL$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:AJ4">
+    <cfRule type="top10" dxfId="19" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+      <formula>$AL$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+      <formula>$AL$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:AJ5">
+    <cfRule type="top10" dxfId="16" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+      <formula>$AL$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
+      <formula>$AL$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:AJ10">
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+      <formula>$AL$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
+      <formula>$AL$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
+      <formula>"3,5$AG$10"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:AJ12">
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>$AL$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+      <formula>$AL$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:AJ14">
+    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>$AL$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>$AL$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:AJ15">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$AL$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>$AL$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>"3,5$AG$10"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>